--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1069,14 +1069,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 33953-2021</t>
+          <t>A 68621-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44378</v>
+        <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1126,14 +1126,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 68621-2021</t>
+          <t>A 33953-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44502</v>
+        <v>44378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>44434</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1297,14 +1297,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 37072-2025</t>
+          <t>A 21264-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45875.40431712963</v>
+        <v>44705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1316,8 +1316,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1354,14 +1359,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 37076-2025</t>
+          <t>A 21972-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45875.41342592592</v>
+        <v>45068.66232638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1374,7 +1379,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1411,14 +1416,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 13510-2025</t>
+          <t>A 10263-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45736.47103009259</v>
+        <v>45365.43090277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1430,8 +1435,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1468,14 +1478,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 21972-2023</t>
+          <t>A 30743-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45068.66232638889</v>
+        <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1488,7 +1498,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1525,14 +1535,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 10263-2024</t>
+          <t>A 55562-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45365.43090277778</v>
+        <v>44888</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1544,13 +1554,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1587,14 +1592,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58125-2025</t>
+          <t>A 27365-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45982.61506944444</v>
+        <v>45812.64355324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1607,7 +1612,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>11.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1644,14 +1649,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41546-2025</t>
+          <t>A 50230-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45901.57927083333</v>
+        <v>45600</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1663,13 +1668,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 41550-2025</t>
+          <t>A 41546-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45901.58652777778</v>
+        <v>45901.57927083333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1768,14 +1768,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 58109-2025</t>
+          <t>A 41550-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45982.59765046297</v>
+        <v>45901.58652777778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1787,8 +1787,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1825,14 +1830,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 58111-2025</t>
+          <t>A 12077-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45982.59920138889</v>
+        <v>44636.47484953704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1845,7 +1850,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1882,14 +1887,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 54207-2025</t>
+          <t>A 42991-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45964</v>
+        <v>45909.45190972222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1902,7 +1907,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1939,14 +1944,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 54203-2025</t>
+          <t>A 42994-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45964</v>
+        <v>45909.45351851852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1959,7 +1964,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>10.3</v>
+        <v>7.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1996,14 +2001,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42994-2025</t>
+          <t>A 43448-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45909.45351851852</v>
+        <v>45911.45209490741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2016,7 +2021,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2053,14 +2058,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 42991-2025</t>
+          <t>A 44192-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45909.45190972222</v>
+        <v>45915.61556712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2073,7 +2078,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2110,14 +2115,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43448-2025</t>
+          <t>A 37407-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45911.45209490741</v>
+        <v>45156.60152777778</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2130,7 +2135,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2174,7 +2179,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,14 +2229,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 1621-2026</t>
+          <t>A 33799-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46034.47645833333</v>
+        <v>45842.44056712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2243,8 +2248,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2281,14 +2291,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 1622-2026</t>
+          <t>A 37072-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46034.47929398148</v>
+        <v>45875.40431712963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2301,7 +2311,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2338,14 +2348,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44192-2025</t>
+          <t>A 37076-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45915.61556712963</v>
+        <v>45875.41342592592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2358,7 +2368,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2395,14 +2405,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 34984-2024</t>
+          <t>A 14149-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45527</v>
+        <v>44651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2414,8 +2424,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2452,14 +2467,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 22072-2023</t>
+          <t>A 13510-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45069</v>
+        <v>45736.47103009259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2472,7 +2487,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2509,14 +2524,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35036-2024</t>
+          <t>A 53343-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45527</v>
+        <v>45614.43885416666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2529,7 +2544,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2566,14 +2581,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62831-2023</t>
+          <t>A 8848-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45270</v>
+        <v>45713.34292824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2586,7 +2601,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2623,14 +2638,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 55562-2022</t>
+          <t>A 58109-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44888</v>
+        <v>45982.59765046297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2643,7 +2658,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2680,14 +2695,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62433-2025</t>
+          <t>A 58111-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46007</v>
+        <v>45982.59920138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2700,7 +2715,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2737,14 +2752,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16762-2022</t>
+          <t>A 58125-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44673.47876157407</v>
+        <v>45982.61506944444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2757,7 +2772,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2794,14 +2809,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 8848-2025</t>
+          <t>A 54207-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45713.34292824074</v>
+        <v>45964</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2814,7 +2829,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2851,14 +2866,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50230-2024</t>
+          <t>A 54203-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45600</v>
+        <v>45964</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2871,7 +2886,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>10.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2908,14 +2923,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30766-2022</t>
+          <t>A 8436-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44764</v>
+        <v>44977</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2927,8 +2942,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2965,14 +2985,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7245-2025</t>
+          <t>A 1621-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45702</v>
+        <v>46034.47645833333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2985,7 +3005,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3022,14 +3042,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30743-2021</t>
+          <t>A 1622-2026</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44365</v>
+        <v>46034.47929398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3042,7 +3062,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3079,14 +3099,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8436-2023</t>
+          <t>A 7245-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44977</v>
+        <v>45702</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3096,11 +3116,6 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>HALLSTAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -3141,14 +3156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21264-2022</t>
+          <t>A 34984-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44705</v>
+        <v>45527</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3160,13 +3175,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3203,14 +3213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12077-2022</t>
+          <t>A 62433-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44636.47484953704</v>
+        <v>46007</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3223,7 +3233,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3260,14 +3270,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37407-2023</t>
+          <t>A 16762-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45156.60152777778</v>
+        <v>44673.47876157407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3280,7 +3290,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3317,14 +3327,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14149-2022</t>
+          <t>A 22072-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44651</v>
+        <v>45069</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3336,13 +3346,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3379,14 +3384,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 53343-2024</t>
+          <t>A 30766-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45614.43885416666</v>
+        <v>44764</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3399,7 +3404,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3436,14 +3441,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27365-2025</t>
+          <t>A 35036-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45812.64355324074</v>
+        <v>45527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3456,7 +3461,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>11.9</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3493,14 +3498,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33799-2025</t>
+          <t>A 62831-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45842.44056712963</v>
+        <v>45270</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3512,13 +3517,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44434</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>45068.66232638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45365.43090277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44888</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45812.64355324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>45600</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45901.57927083333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45901.58652777778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44636.47484953704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45909.45190972222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45909.45351851852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45911.45209490741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45915.61556712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45156.60152777778</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45842.44056712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>45875.40431712963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45875.41342592592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         <v>44651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>45736.47103009259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45614.43885416666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>45713.34292824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45982.59765046297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45982.59920138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45982.61506944444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45964</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45964</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44977</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>46034.47645833333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>46034.47929398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45702</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>45527</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>46007</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44673.47876157407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>45069</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44764</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45270</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44434</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>45068.66232638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45365.43090277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44888</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45812.64355324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>45600</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45901.57927083333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45901.58652777778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44636.47484953704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45909.45190972222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45909.45351851852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45911.45209490741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45915.61556712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45156.60152777778</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45842.44056712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>45875.40431712963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45875.41342592592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         <v>44651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>45736.47103009259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45614.43885416666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>45713.34292824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>45982.59765046297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45982.59920138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45982.61506944444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45964</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>45964</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44977</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>46034.47645833333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>46034.47929398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45702</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>45527</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>46007</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44673.47876157407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>45069</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44764</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45270</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44434</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1297,14 +1297,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21264-2022</t>
+          <t>A 10263-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44705</v>
+        <v>45365.43090277778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,11 +1318,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1359,14 +1359,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21972-2023</t>
+          <t>A 30174-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45068.66232638889</v>
+        <v>44363</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1416,14 +1416,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 10263-2024</t>
+          <t>A 34984-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45365.43090277778</v>
+        <v>45527</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1435,13 +1435,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1478,14 +1473,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 30743-2021</t>
+          <t>A 22072-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44365</v>
+        <v>45069</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1498,7 +1493,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1542,7 +1537,7 @@
         <v>44888</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1592,14 +1587,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 27365-2025</t>
+          <t>A 16762-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45812.64355324074</v>
+        <v>44673.47876157407</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1612,7 +1607,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>11.9</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1649,14 +1644,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 50230-2024</t>
+          <t>A 33799-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45600</v>
+        <v>45842.44056712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1668,8 +1663,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>45901.57927083333</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>45901.58652777778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1830,14 +1830,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 12077-2022</t>
+          <t>A 42994-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44636.47484953704</v>
+        <v>45909.45351851852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>7.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>45909.45190972222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1944,14 +1944,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 42994-2025</t>
+          <t>A 43448-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45909.45351851852</v>
+        <v>45911.45209490741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43448-2025</t>
+          <t>A 50230-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45911.45209490741</v>
+        <v>45600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>45915.61556712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37407-2023</t>
+          <t>A 37072-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45156.60152777778</v>
+        <v>45875.40431712963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30174-2021</t>
+          <t>A 37076-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44363</v>
+        <v>45875.41342592592</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 33799-2025</t>
+          <t>A 13510-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45842.44056712963</v>
+        <v>45736.47103009259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2246,11 +2246,6 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>HALLSTAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -2291,14 +2286,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37072-2025</t>
+          <t>A 21972-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45875.40431712963</v>
+        <v>45068.66232638889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2348,14 +2343,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37076-2025</t>
+          <t>A 35036-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45875.41342592592</v>
+        <v>45527</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2368,7 +2363,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2405,14 +2400,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 14149-2022</t>
+          <t>A 62831-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44651</v>
+        <v>45270</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2424,13 +2419,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2467,14 +2457,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13510-2025</t>
+          <t>A 8848-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45736.47103009259</v>
+        <v>45713.34292824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2487,7 +2477,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2524,14 +2514,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53343-2024</t>
+          <t>A 58125-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45614.43885416666</v>
+        <v>45982.61506944444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2544,7 +2534,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2581,14 +2571,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8848-2025</t>
+          <t>A 58109-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45713.34292824074</v>
+        <v>45982.59765046297</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2601,7 +2591,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2638,14 +2628,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58109-2025</t>
+          <t>A 58111-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45982.59765046297</v>
+        <v>45982.59920138889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2658,7 +2648,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2695,14 +2685,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58111-2025</t>
+          <t>A 54207-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45982.59920138889</v>
+        <v>45964</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2715,7 +2705,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2752,14 +2742,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 58125-2025</t>
+          <t>A 54203-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45982.61506944444</v>
+        <v>45964</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2772,7 +2762,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>10.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2809,14 +2799,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 54207-2025</t>
+          <t>A 1621-2026</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45964</v>
+        <v>46034.47645833333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2829,7 +2819,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2866,14 +2856,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 54203-2025</t>
+          <t>A 1622-2026</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45964</v>
+        <v>46034.47929398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2886,7 +2876,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>10.3</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2923,14 +2913,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8436-2023</t>
+          <t>A 30766-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44977</v>
+        <v>44764</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2942,13 +2932,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2985,14 +2970,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1621-2026</t>
+          <t>A 7245-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46034.47645833333</v>
+        <v>45702</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3005,7 +2990,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3042,14 +3027,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 1622-2026</t>
+          <t>A 62433-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46034.47929398148</v>
+        <v>46007</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3062,7 +3047,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3099,14 +3084,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7245-2025</t>
+          <t>A 30743-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45702</v>
+        <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3119,7 +3104,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3156,14 +3141,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 34984-2024</t>
+          <t>A 8436-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45527</v>
+        <v>44977</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3175,8 +3160,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3213,14 +3203,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62433-2025</t>
+          <t>A 21264-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46007</v>
+        <v>44705</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3232,8 +3222,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3270,14 +3265,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16762-2022</t>
+          <t>A 12077-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44673.47876157407</v>
+        <v>44636.47484953704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3290,7 +3285,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3327,14 +3322,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22072-2023</t>
+          <t>A 37407-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45069</v>
+        <v>45156.60152777778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3347,7 +3342,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3384,14 +3379,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30766-2022</t>
+          <t>A 14149-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44764</v>
+        <v>44651</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3403,8 +3398,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35036-2024</t>
+          <t>A 53343-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45527</v>
+        <v>45614.43885416666</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 62831-2023</t>
+          <t>A 27365-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45270</v>
+        <v>45812.64355324074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>11.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1126,14 +1126,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 33953-2021</t>
+          <t>A 44069-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44378</v>
+        <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1183,14 +1183,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 44069-2021</t>
+          <t>A 33953-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44434</v>
+        <v>44378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1297,14 +1297,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 10263-2024</t>
+          <t>A 21264-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45365.43090277778</v>
+        <v>44705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,11 +1318,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1359,14 +1359,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 30174-2021</t>
+          <t>A 21972-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44363</v>
+        <v>45068.66232638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1416,14 +1416,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34984-2024</t>
+          <t>A 41546-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45527</v>
+        <v>45901.57927083333</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1435,8 +1435,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1473,14 +1478,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 22072-2023</t>
+          <t>A 41550-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45069</v>
+        <v>45901.58652777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1492,8 +1497,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1530,14 +1540,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 55562-2022</t>
+          <t>A 62831-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44888</v>
+        <v>45270</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1550,7 +1560,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1587,14 +1597,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 16762-2022</t>
+          <t>A 42991-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44673.47876157407</v>
+        <v>45909.45190972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1607,7 +1617,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1644,14 +1654,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33799-2025</t>
+          <t>A 42994-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45842.44056712963</v>
+        <v>45909.45351851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1663,13 +1673,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1706,14 +1711,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 41546-2025</t>
+          <t>A 10263-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45901.57927083333</v>
+        <v>45365.43090277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,11 +1732,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1768,14 +1773,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41550-2025</t>
+          <t>A 30743-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45901.58652777778</v>
+        <v>44365</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1787,13 +1792,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42994-2025</t>
+          <t>A 43448-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45909.45351851852</v>
+        <v>45911.45209490741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42991-2025</t>
+          <t>A 55562-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45909.45190972222</v>
+        <v>44888</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43448-2025</t>
+          <t>A 44192-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45911.45209490741</v>
+        <v>45915.61556712963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2058,14 +2058,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44192-2025</t>
+          <t>A 12077-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45915.61556712963</v>
+        <v>44636.47484953704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37072-2025</t>
+          <t>A 27365-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45875.40431712963</v>
+        <v>45812.64355324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>11.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37076-2025</t>
+          <t>A 37407-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45875.41342592592</v>
+        <v>45156.60152777778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 13510-2025</t>
+          <t>A 30174-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45736.47103009259</v>
+        <v>44363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 21972-2023</t>
+          <t>A 33799-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45068.66232638889</v>
+        <v>45842.44056712963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2305,8 +2305,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2343,14 +2348,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35036-2024</t>
+          <t>A 37072-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45527</v>
+        <v>45875.40431712963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2363,7 +2368,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2400,14 +2405,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62831-2023</t>
+          <t>A 37076-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45270</v>
+        <v>45875.41342592592</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2420,7 +2425,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2457,14 +2462,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 8848-2025</t>
+          <t>A 13510-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45713.34292824074</v>
+        <v>45736.47103009259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2477,7 +2482,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2514,14 +2519,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58125-2025</t>
+          <t>A 14149-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45982.61506944444</v>
+        <v>44651</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2533,8 +2538,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2571,14 +2581,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58109-2025</t>
+          <t>A 53343-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45982.59765046297</v>
+        <v>45614.43885416666</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2591,7 +2601,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2628,14 +2638,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58111-2025</t>
+          <t>A 8848-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45982.59920138889</v>
+        <v>45713.34292824074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2648,7 +2658,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2685,14 +2695,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54207-2025</t>
+          <t>A 8436-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45964</v>
+        <v>44977</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2704,8 +2714,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2742,14 +2757,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54203-2025</t>
+          <t>A 58109-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45964</v>
+        <v>45982.59765046297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2762,7 +2777,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>10.3</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2799,14 +2814,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1621-2026</t>
+          <t>A 58111-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46034.47645833333</v>
+        <v>45982.59920138889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2819,7 +2834,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2856,14 +2871,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 1622-2026</t>
+          <t>A 58125-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46034.47929398148</v>
+        <v>45982.61506944444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2876,7 +2891,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2913,14 +2928,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30766-2022</t>
+          <t>A 54207-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44764</v>
+        <v>45964</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2933,7 +2948,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2970,14 +2985,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7245-2025</t>
+          <t>A 54203-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45702</v>
+        <v>45964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2990,7 +3005,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>10.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3027,14 +3042,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 62433-2025</t>
+          <t>A 7245-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46007</v>
+        <v>45702</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3047,7 +3062,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3084,14 +3099,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30743-2021</t>
+          <t>A 1621-2026</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44365</v>
+        <v>46034.47645833333</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3104,7 +3119,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3141,14 +3156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8436-2023</t>
+          <t>A 1622-2026</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44977</v>
+        <v>46034.47929398148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3160,13 +3175,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3203,14 +3213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21264-2022</t>
+          <t>A 34984-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44705</v>
+        <v>45527</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3222,13 +3232,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3265,14 +3270,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12077-2022</t>
+          <t>A 62433-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44636.47484953704</v>
+        <v>46007</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3285,7 +3290,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3322,14 +3327,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37407-2023</t>
+          <t>A 16762-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45156.60152777778</v>
+        <v>44673.47876157407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3342,7 +3347,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3379,14 +3384,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14149-2022</t>
+          <t>A 22072-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44651</v>
+        <v>45069</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3398,13 +3403,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53343-2024</t>
+          <t>A 30766-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45614.43885416666</v>
+        <v>44764</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27365-2025</t>
+          <t>A 35036-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45812.64355324074</v>
+        <v>45527</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>11.9</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -893,14 +893,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 68624-2021</t>
+          <t>A 26702-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44502</v>
+        <v>44739.74783564815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -950,14 +950,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 26702-2022</t>
+          <t>A 29035-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44739.74783564815</v>
+        <v>44358</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -969,8 +969,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1007,14 +1012,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 29035-2021</t>
+          <t>A 33953-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44358</v>
+        <v>44378</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1026,13 +1031,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 33953-2021</t>
+          <t>A 9761-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44378</v>
+        <v>44252</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 9761-2021</t>
+          <t>A 68624-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44252</v>
+        <v>44502</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21264-2022</t>
+          <t>A 30174-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44705</v>
+        <v>44363</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1316,13 +1316,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1359,14 +1354,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21972-2023</t>
+          <t>A 34984-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45068.66232638889</v>
+        <v>45527</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1379,7 +1374,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1416,14 +1411,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 41546-2025</t>
+          <t>A 22072-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45901.57927083333</v>
+        <v>45069</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1435,13 +1430,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1478,14 +1468,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41550-2025</t>
+          <t>A 10263-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45901.58652777778</v>
+        <v>45365.43090277778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,11 +1489,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1540,14 +1530,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 62831-2023</t>
+          <t>A 35036-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45270</v>
+        <v>45527</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1560,7 +1550,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1597,14 +1587,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 42991-2025</t>
+          <t>A 62831-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45909.45190972222</v>
+        <v>45270</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1617,7 +1607,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1654,14 +1644,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 42994-2025</t>
+          <t>A 8436-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45909.45351851852</v>
+        <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1673,8 +1663,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1711,14 +1706,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 10263-2024</t>
+          <t>A 55562-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45365.43090277778</v>
+        <v>44888</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1730,13 +1725,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1773,14 +1763,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 30743-2021</t>
+          <t>A 8848-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44365</v>
+        <v>45713.34292824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1793,7 +1783,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1830,14 +1820,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 43448-2025</t>
+          <t>A 27365-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45911.45209490741</v>
+        <v>45812.64355324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1850,7 +1840,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>11.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1887,14 +1877,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 55562-2022</t>
+          <t>A 16762-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44888</v>
+        <v>44673.47876157407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1907,7 +1897,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1944,14 +1934,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 44192-2025</t>
+          <t>A 30766-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45915.61556712963</v>
+        <v>44764</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1964,7 +1954,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2001,14 +1991,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 50230-2024</t>
+          <t>A 33799-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45600</v>
+        <v>45842.44056712963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2020,8 +2010,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2058,14 +2053,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 12077-2022</t>
+          <t>A 21264-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44636.47484953704</v>
+        <v>44705</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2077,8 +2072,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 27365-2025</t>
+          <t>A 12077-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45812.64355324074</v>
+        <v>44636.47484953704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>11.9</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37407-2023</t>
+          <t>A 50230-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45156.60152777778</v>
+        <v>45600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30174-2021</t>
+          <t>A 7245-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44363</v>
+        <v>45702</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 33799-2025</t>
+          <t>A 37072-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45842.44056712963</v>
+        <v>45875.40431712963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2305,13 +2305,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2348,14 +2343,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37072-2025</t>
+          <t>A 37076-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45875.40431712963</v>
+        <v>45875.41342592592</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2368,7 +2363,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2405,14 +2400,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 37076-2025</t>
+          <t>A 13510-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45875.41342592592</v>
+        <v>45736.47103009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2425,7 +2420,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2462,14 +2457,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13510-2025</t>
+          <t>A 37407-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45736.47103009259</v>
+        <v>45156.60152777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2482,7 +2477,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2519,14 +2514,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 14149-2022</t>
+          <t>A 21972-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44651</v>
+        <v>45068.66232638889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2538,13 +2533,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2581,14 +2571,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 53343-2024</t>
+          <t>A 30743-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45614.43885416666</v>
+        <v>44365</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2601,7 +2591,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2638,14 +2628,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8848-2025</t>
+          <t>A 14149-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45713.34292824074</v>
+        <v>44651</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,8 +2647,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2695,14 +2690,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 8436-2023</t>
+          <t>A 41546-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44977</v>
+        <v>45901.57927083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,11 +2711,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2757,14 +2752,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 58109-2025</t>
+          <t>A 41550-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45982.59765046297</v>
+        <v>45901.58652777778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2776,8 +2771,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2814,14 +2814,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 58111-2025</t>
+          <t>A 42994-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45982.59920138889</v>
+        <v>45909.45351851852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>7.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2871,14 +2871,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58125-2025</t>
+          <t>A 42991-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45982.61506944444</v>
+        <v>45909.45190972222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2928,14 +2928,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 54207-2025</t>
+          <t>A 43448-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45964</v>
+        <v>45911.45209490741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2985,14 +2985,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54203-2025</t>
+          <t>A 44192-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45964</v>
+        <v>45915.61556712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>10.3</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3042,14 +3042,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7245-2025</t>
+          <t>A 53343-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45702</v>
+        <v>45614.43885416666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3099,14 +3099,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 1621-2026</t>
+          <t>A 58125-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46034.47645833333</v>
+        <v>45982.61506944444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3156,14 +3156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 1622-2026</t>
+          <t>A 58109-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46034.47929398148</v>
+        <v>45982.59765046297</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3213,14 +3213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34984-2024</t>
+          <t>A 58111-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45527</v>
+        <v>45982.59920138889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3270,14 +3270,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62433-2025</t>
+          <t>A 54207-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46007</v>
+        <v>45964</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 16762-2022</t>
+          <t>A 54203-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44673.47876157407</v>
+        <v>45964</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.2</v>
+        <v>10.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22072-2023</t>
+          <t>A 1621-2026</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45069</v>
+        <v>46034.47645833333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30766-2022</t>
+          <t>A 1622-2026</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44764</v>
+        <v>46034.47929398148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35036-2024</t>
+          <t>A 62433-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45527</v>
+        <v>46007</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -893,14 +893,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 26702-2022</t>
+          <t>A 68624-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44739.74783564815</v>
+        <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -950,14 +950,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 29035-2021</t>
+          <t>A 26702-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44358</v>
+        <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -969,13 +969,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1012,14 +1007,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33953-2021</t>
+          <t>A 29035-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44378</v>
+        <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1031,8 +1026,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1126,14 +1126,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 44069-2021</t>
+          <t>A 33953-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44434</v>
+        <v>44378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>44252</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1240,14 +1240,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 68624-2021</t>
+          <t>A 44069-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44502</v>
+        <v>44434</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1297,14 +1297,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 30174-2021</t>
+          <t>A 21264-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44363</v>
+        <v>44705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1316,8 +1316,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1354,14 +1359,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34984-2024</t>
+          <t>A 21972-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45527</v>
+        <v>45068.66232638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1374,7 +1379,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1411,14 +1416,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 22072-2023</t>
+          <t>A 10263-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45069</v>
+        <v>45365.43090277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1430,8 +1435,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1468,14 +1478,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 10263-2024</t>
+          <t>A 30743-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45365.43090277778</v>
+        <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1487,13 +1497,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1530,14 +1535,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35036-2024</t>
+          <t>A 55562-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45527</v>
+        <v>44888</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1550,7 +1555,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1587,14 +1592,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 62831-2023</t>
+          <t>A 27365-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45270</v>
+        <v>45812.64355324074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1607,7 +1612,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>11.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1644,14 +1649,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 8436-2023</t>
+          <t>A 50230-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44977</v>
+        <v>45600</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1663,13 +1668,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 55562-2022</t>
+          <t>A 12077-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44888</v>
+        <v>44636.47484953704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1763,14 +1763,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 8848-2025</t>
+          <t>A 37407-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45713.34292824074</v>
+        <v>45156.60152777778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1820,14 +1820,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27365-2025</t>
+          <t>A 30174-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45812.64355324074</v>
+        <v>44363</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>11.9</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1877,14 +1877,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16762-2022</t>
+          <t>A 41546-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44673.47876157407</v>
+        <v>45901.57927083333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1896,8 +1896,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1934,14 +1939,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 30766-2022</t>
+          <t>A 41550-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44764</v>
+        <v>45901.58652777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1953,8 +1958,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1998,7 +2008,7 @@
         <v>45842.44056712963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,14 +2063,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21264-2022</t>
+          <t>A 42991-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44705</v>
+        <v>45909.45190972222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2072,13 +2082,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2115,14 +2120,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12077-2022</t>
+          <t>A 42994-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44636.47484953704</v>
+        <v>45909.45351851852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2135,7 +2140,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>7.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2172,14 +2177,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50230-2024</t>
+          <t>A 37072-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45600</v>
+        <v>45875.40431712963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2192,7 +2197,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2229,14 +2234,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 7245-2025</t>
+          <t>A 37076-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45702</v>
+        <v>45875.41342592592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2249,7 +2254,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2286,14 +2291,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37072-2025</t>
+          <t>A 43448-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45875.40431712963</v>
+        <v>45911.45209490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2306,7 +2311,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2343,14 +2348,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37076-2025</t>
+          <t>A 13510-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45875.41342592592</v>
+        <v>45736.47103009259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2363,7 +2368,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2400,14 +2405,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13510-2025</t>
+          <t>A 44192-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45736.47103009259</v>
+        <v>45915.61556712963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2420,7 +2425,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2457,14 +2462,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 37407-2023</t>
+          <t>A 14149-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45156.60152777778</v>
+        <v>44651</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2476,8 +2481,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2514,14 +2524,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21972-2023</t>
+          <t>A 53343-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45068.66232638889</v>
+        <v>45614.43885416666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2534,7 +2544,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2571,14 +2581,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30743-2021</t>
+          <t>A 8848-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44365</v>
+        <v>45713.34292824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2591,7 +2601,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2628,14 +2638,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14149-2022</t>
+          <t>A 8436-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44651</v>
+        <v>44977</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2649,11 +2659,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2690,14 +2700,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 41546-2025</t>
+          <t>A 7245-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45901.57927083333</v>
+        <v>45702</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2709,13 +2719,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2752,14 +2757,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41550-2025</t>
+          <t>A 34984-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45901.58652777778</v>
+        <v>45527</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2771,13 +2776,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2814,14 +2814,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 42994-2025</t>
+          <t>A 58109-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45909.45351851852</v>
+        <v>45982.59765046297</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2871,14 +2871,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42991-2025</t>
+          <t>A 58111-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45909.45190972222</v>
+        <v>45982.59920138889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2928,14 +2928,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43448-2025</t>
+          <t>A 58125-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45911.45209490741</v>
+        <v>45982.61506944444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2985,14 +2985,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44192-2025</t>
+          <t>A 54207-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45915.61556712963</v>
+        <v>45964</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3042,14 +3042,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 53343-2024</t>
+          <t>A 54203-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45614.43885416666</v>
+        <v>45964</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>10.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3099,14 +3099,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 58125-2025</t>
+          <t>A 1621-2026</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45982.61506944444</v>
+        <v>46034.47645833333</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3156,14 +3156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58109-2025</t>
+          <t>A 1622-2026</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45982.59765046297</v>
+        <v>46034.47929398148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3213,14 +3213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 58111-2025</t>
+          <t>A 16762-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45982.59920138889</v>
+        <v>44673.47876157407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3270,14 +3270,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 54207-2025</t>
+          <t>A 22072-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45964</v>
+        <v>45069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 54203-2025</t>
+          <t>A 62433-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45964</v>
+        <v>46007</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>10.3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3384,14 +3384,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 1621-2026</t>
+          <t>A 30766-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46034.47645833333</v>
+        <v>44764</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3441,14 +3441,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 1622-2026</t>
+          <t>A 35036-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46034.47929398148</v>
+        <v>45527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3498,14 +3498,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 62433-2025</t>
+          <t>A 62831-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46007</v>
+        <v>45270</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 9761-2021</t>
+          <t>A 44069-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44252</v>
+        <v>44434</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1240,14 +1240,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 44069-2021</t>
+          <t>A 9761-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44434</v>
+        <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>44705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>45068.66232638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45365.43090277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44888</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1592,14 +1592,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 27365-2025</t>
+          <t>A 41546-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45812.64355324074</v>
+        <v>45901.57927083333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1611,8 +1611,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>11.9</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1649,14 +1654,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 50230-2024</t>
+          <t>A 41550-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45600</v>
+        <v>45901.58652777778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1668,8 +1673,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1706,14 +1716,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 12077-2022</t>
+          <t>A 62433-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44636.47484953704</v>
+        <v>46007</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1726,7 +1736,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1763,14 +1773,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 37407-2023</t>
+          <t>A 27365-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45156.60152777778</v>
+        <v>45812.64355324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1783,7 +1793,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>11.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1820,14 +1830,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30174-2021</t>
+          <t>A 42991-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44363</v>
+        <v>45909.45190972222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1840,7 +1850,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1877,14 +1887,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 41546-2025</t>
+          <t>A 42994-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45901.57927083333</v>
+        <v>45909.45351851852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1896,13 +1906,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>7.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1939,14 +1944,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 41550-2025</t>
+          <t>A 43448-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45901.58652777778</v>
+        <v>45911.45209490741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1958,13 +1963,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33799-2025</t>
+          <t>A 50230-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45842.44056712963</v>
+        <v>45600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2020,13 +2020,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2063,14 +2058,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 42991-2025</t>
+          <t>A 44192-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45909.45190972222</v>
+        <v>45915.61556712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2083,7 +2078,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2120,14 +2115,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 42994-2025</t>
+          <t>A 12077-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45909.45351851852</v>
+        <v>44636.47484953704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2140,7 +2135,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2177,14 +2172,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37072-2025</t>
+          <t>A 37407-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45875.40431712963</v>
+        <v>45156.60152777778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2197,7 +2192,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2234,14 +2229,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37076-2025</t>
+          <t>A 33799-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45875.41342592592</v>
+        <v>45842.44056712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2253,8 +2248,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2291,14 +2291,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 43448-2025</t>
+          <t>A 30174-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45911.45209490741</v>
+        <v>44363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2348,14 +2348,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 13510-2025</t>
+          <t>A 37072-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45736.47103009259</v>
+        <v>45875.40431712963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2405,14 +2405,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 44192-2025</t>
+          <t>A 37076-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45915.61556712963</v>
+        <v>45875.41342592592</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2462,14 +2462,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 14149-2022</t>
+          <t>A 13510-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44651</v>
+        <v>45736.47103009259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2481,13 +2481,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2524,14 +2519,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53343-2024</t>
+          <t>A 58109-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45614.43885416666</v>
+        <v>45982.59765046297</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2544,7 +2539,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2581,14 +2576,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8848-2025</t>
+          <t>A 58111-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45713.34292824074</v>
+        <v>45982.59920138889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2601,7 +2596,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2638,14 +2633,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8436-2023</t>
+          <t>A 58125-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44977</v>
+        <v>45982.61506944444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2657,13 +2652,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2700,14 +2690,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7245-2025</t>
+          <t>A 54207-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45702</v>
+        <v>45964</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2720,7 +2710,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2757,14 +2747,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 34984-2024</t>
+          <t>A 54203-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45527</v>
+        <v>45964</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2777,7 +2767,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>10.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2814,14 +2804,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 58109-2025</t>
+          <t>A 14149-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45982.59765046297</v>
+        <v>44651</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2833,8 +2823,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2871,14 +2866,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58111-2025</t>
+          <t>A 53343-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45982.59920138889</v>
+        <v>45614.43885416666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2891,7 +2886,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2928,14 +2923,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 58125-2025</t>
+          <t>A 1621-2026</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45982.61506944444</v>
+        <v>46034.47645833333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2948,7 +2943,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2985,14 +2980,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54207-2025</t>
+          <t>A 1622-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45964</v>
+        <v>46034.47929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3005,7 +3000,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3042,14 +3037,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 54203-2025</t>
+          <t>A 8848-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45964</v>
+        <v>45713.34292824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3062,7 +3057,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10.3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3099,14 +3094,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 1621-2026</t>
+          <t>A 8436-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46034.47645833333</v>
+        <v>44977</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3118,8 +3113,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3156,14 +3156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 1622-2026</t>
+          <t>A 7245-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46034.47929398148</v>
+        <v>45702</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3213,14 +3213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16762-2022</t>
+          <t>A 34984-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44673.47876157407</v>
+        <v>45527</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3270,14 +3270,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22072-2023</t>
+          <t>A 16762-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45069</v>
+        <v>44673.47876157407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3327,14 +3327,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 62433-2025</t>
+          <t>A 22072-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46007</v>
+        <v>45069</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>44764</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45270</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44434</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>45068.66232638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45365.43090277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1478,14 +1478,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 30743-2021</t>
+          <t>A 41546-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44365</v>
+        <v>45901.57927083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1497,8 +1497,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1535,14 +1540,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 55562-2022</t>
+          <t>A 41550-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44888</v>
+        <v>45901.58652777778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1554,8 +1559,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1592,14 +1602,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41546-2025</t>
+          <t>A 30743-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45901.57927083333</v>
+        <v>44365</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1611,13 +1621,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1654,14 +1659,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41550-2025</t>
+          <t>A 55562-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45901.58652777778</v>
+        <v>44888</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1673,13 +1678,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 62433-2025</t>
+          <t>A 42991-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46007</v>
+        <v>45909.45190972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 27365-2025</t>
+          <t>A 42994-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45812.64355324074</v>
+        <v>45909.45351851852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>11.9</v>
+        <v>7.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42991-2025</t>
+          <t>A 27365-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45909.45190972222</v>
+        <v>45812.64355324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7.2</v>
+        <v>11.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42994-2025</t>
+          <t>A 43448-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45909.45351851852</v>
+        <v>45911.45209490741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43448-2025</t>
+          <t>A 58109-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45911.45209490741</v>
+        <v>45982.59765046297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 50230-2024</t>
+          <t>A 58111-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45600</v>
+        <v>45982.59920138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>45915.61556712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12077-2022</t>
+          <t>A 58125-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44636.47484953704</v>
+        <v>45982.61506944444</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37407-2023</t>
+          <t>A 50230-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45156.60152777778</v>
+        <v>45600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 33799-2025</t>
+          <t>A 54207-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45842.44056712963</v>
+        <v>45964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2248,13 +2248,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2291,14 +2286,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30174-2021</t>
+          <t>A 12077-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44363</v>
+        <v>44636.47484953704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2311,7 +2306,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2348,14 +2343,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37072-2025</t>
+          <t>A 54203-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45875.40431712963</v>
+        <v>45964</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2368,7 +2363,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2405,14 +2400,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 37076-2025</t>
+          <t>A 37407-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45875.41342592592</v>
+        <v>45156.60152777778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2425,7 +2420,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2462,14 +2457,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13510-2025</t>
+          <t>A 33799-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45736.47103009259</v>
+        <v>45842.44056712963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2479,6 +2474,11 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>HALLSTAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -2519,14 +2519,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58109-2025</t>
+          <t>A 30174-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45982.59765046297</v>
+        <v>44363</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2576,14 +2576,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58111-2025</t>
+          <t>A 37072-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45982.59920138889</v>
+        <v>45875.40431712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2633,14 +2633,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58125-2025</t>
+          <t>A 37076-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45982.61506944444</v>
+        <v>45875.41342592592</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2690,14 +2690,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54207-2025</t>
+          <t>A 13510-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45964</v>
+        <v>45736.47103009259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2747,14 +2747,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54203-2025</t>
+          <t>A 1621-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45964</v>
+        <v>46034.47645833333</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>10.3</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2804,14 +2804,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14149-2022</t>
+          <t>A 1622-2026</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44651</v>
+        <v>46034.47929398148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2823,13 +2823,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2866,14 +2861,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53343-2024</t>
+          <t>A 14149-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45614.43885416666</v>
+        <v>44651</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2885,8 +2880,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2923,14 +2923,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 1621-2026</t>
+          <t>A 53343-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46034.47645833333</v>
+        <v>45614.43885416666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2980,14 +2980,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1622-2026</t>
+          <t>A 62433-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46034.47929398148</v>
+        <v>46007</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>45713.34292824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44977</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>45702</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45527</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44673.47876157407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>45069</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44764</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>45270</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44378</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44434</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1297,14 +1297,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21264-2022</t>
+          <t>A 53343-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44705</v>
+        <v>45614.43885416666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1316,13 +1316,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1359,14 +1354,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 21972-2023</t>
+          <t>A 10263-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45068.66232638889</v>
+        <v>45365.43090277778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1378,8 +1373,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1416,14 +1416,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 10263-2024</t>
+          <t>A 30174-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45365.43090277778</v>
+        <v>44363</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1435,13 +1435,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1485,7 +1480,7 @@
         <v>45901.57927083333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1547,7 +1542,7 @@
         <v>45901.58652777778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1602,14 +1597,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 30743-2021</t>
+          <t>A 34984-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44365</v>
+        <v>45527</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1622,7 +1617,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1659,14 +1654,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 55562-2022</t>
+          <t>A 42994-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44888</v>
+        <v>45909.45351851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1679,7 +1674,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1723,7 +1718,7 @@
         <v>45909.45190972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1773,14 +1768,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42994-2025</t>
+          <t>A 43448-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45909.45351851852</v>
+        <v>45911.45209490741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1793,7 +1788,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1830,14 +1825,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27365-2025</t>
+          <t>A 44192-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45812.64355324074</v>
+        <v>45915.61556712963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1850,7 +1845,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>11.9</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1887,14 +1882,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 43448-2025</t>
+          <t>A 22072-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45911.45209490741</v>
+        <v>45069</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1907,7 +1902,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1944,14 +1939,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58109-2025</t>
+          <t>A 27365-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45982.59765046297</v>
+        <v>45812.64355324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1964,7 +1959,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>11.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2001,14 +1996,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 58111-2025</t>
+          <t>A 55562-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45982.59920138889</v>
+        <v>44888</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2021,7 +2016,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2058,14 +2053,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44192-2025</t>
+          <t>A 58125-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45915.61556712963</v>
+        <v>45982.61506944444</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2115,14 +2110,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 58125-2025</t>
+          <t>A 58109-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45982.61506944444</v>
+        <v>45982.59765046297</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2135,7 +2130,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2172,14 +2167,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50230-2024</t>
+          <t>A 58111-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45600</v>
+        <v>45982.59920138889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2192,7 +2187,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2236,7 +2231,7 @@
         <v>45964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2286,14 +2281,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12077-2022</t>
+          <t>A 54203-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44636.47484953704</v>
+        <v>45964</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2306,7 +2301,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>10.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2343,14 +2338,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 54203-2025</t>
+          <t>A 33799-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45964</v>
+        <v>45842.44056712963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2362,8 +2357,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>10.3</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 37407-2023</t>
+          <t>A 16762-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45156.60152777778</v>
+        <v>44673.47876157407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 33799-2025</t>
+          <t>A 1621-2026</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45842.44056712963</v>
+        <v>46034.47645833333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2476,13 +2476,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2519,14 +2514,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30174-2021</t>
+          <t>A 1622-2026</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44363</v>
+        <v>46034.47929398148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2539,7 +2534,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2583,7 +2578,7 @@
         <v>45875.40431712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2640,7 +2635,7 @@
         <v>45875.41342592592</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2690,14 +2685,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 13510-2025</t>
+          <t>A 50230-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45736.47103009259</v>
+        <v>45600</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2710,7 +2705,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2747,14 +2742,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 1621-2026</t>
+          <t>A 13510-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46034.47645833333</v>
+        <v>45736.47103009259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2767,7 +2762,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2804,14 +2799,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1622-2026</t>
+          <t>A 62433-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46034.47929398148</v>
+        <v>46007</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2824,7 +2819,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2861,14 +2856,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14149-2022</t>
+          <t>A 21972-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44651</v>
+        <v>45068.66232638889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2880,13 +2875,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2923,14 +2913,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 53343-2024</t>
+          <t>A 35036-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45614.43885416666</v>
+        <v>45527</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2943,7 +2933,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2980,14 +2970,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62433-2025</t>
+          <t>A 62831-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46007</v>
+        <v>45270</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3000,7 +2990,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3044,7 +3034,7 @@
         <v>45713.34292824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3094,14 +3084,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8436-2023</t>
+          <t>A 30766-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44977</v>
+        <v>44764</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3113,13 +3103,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3163,7 +3148,7 @@
         <v>45702</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3213,14 +3198,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34984-2024</t>
+          <t>A 30743-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45527</v>
+        <v>44365</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3233,7 +3218,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3270,14 +3255,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16762-2022</t>
+          <t>A 8436-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44673.47876157407</v>
+        <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3289,8 +3274,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3327,14 +3317,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22072-2023</t>
+          <t>A 21264-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45069</v>
+        <v>44705</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3346,8 +3336,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3384,14 +3379,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30766-2022</t>
+          <t>A 12077-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44764</v>
+        <v>44636.47484953704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3404,7 +3399,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3441,14 +3436,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35036-2024</t>
+          <t>A 37407-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45527</v>
+        <v>45156.60152777778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3461,7 +3456,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3498,14 +3493,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 62831-2023</t>
+          <t>A 14149-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45270</v>
+        <v>44651</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3517,8 +3512,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1126,14 +1126,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 33953-2021</t>
+          <t>A 44069-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44378</v>
+        <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1183,14 +1183,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 44069-2021</t>
+          <t>A 33953-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44434</v>
+        <v>44378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1297,14 +1297,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 53343-2024</t>
+          <t>A 21264-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45614.43885416666</v>
+        <v>44705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1316,8 +1316,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1354,14 +1359,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 10263-2024</t>
+          <t>A 21972-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45365.43090277778</v>
+        <v>45068.66232638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1373,13 +1378,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1416,14 +1416,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 30174-2021</t>
+          <t>A 10263-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44363</v>
+        <v>45365.43090277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1435,8 +1435,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1473,14 +1478,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41546-2025</t>
+          <t>A 30743-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45901.57927083333</v>
+        <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1492,13 +1497,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1535,14 +1535,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41550-2025</t>
+          <t>A 55562-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45901.58652777778</v>
+        <v>44888</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1554,13 +1554,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1597,14 +1592,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 34984-2024</t>
+          <t>A 50230-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45527</v>
+        <v>45600</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1617,7 +1612,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1654,14 +1649,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 42994-2025</t>
+          <t>A 12077-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45909.45351851852</v>
+        <v>44636.47484953704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1674,7 +1669,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1711,14 +1706,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 42991-2025</t>
+          <t>A 37407-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45909.45190972222</v>
+        <v>45156.60152777778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1731,7 +1726,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1768,14 +1763,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43448-2025</t>
+          <t>A 41546-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45911.45209490741</v>
+        <v>45901.57927083333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1787,8 +1782,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1825,14 +1825,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 44192-2025</t>
+          <t>A 41550-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45915.61556712963</v>
+        <v>45901.58652777778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1844,8 +1844,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1882,14 +1887,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22072-2023</t>
+          <t>A 30174-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45069</v>
+        <v>44363</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1902,7 +1907,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1939,14 +1944,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 27365-2025</t>
+          <t>A 42991-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45812.64355324074</v>
+        <v>45909.45190972222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1959,7 +1964,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.9</v>
+        <v>7.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1996,14 +2001,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 55562-2022</t>
+          <t>A 42994-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44888</v>
+        <v>45909.45351851852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2016,7 +2021,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2053,14 +2058,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 58125-2025</t>
+          <t>A 43448-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45982.61506944444</v>
+        <v>45911.45209490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2073,7 +2078,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2110,14 +2115,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 58109-2025</t>
+          <t>A 33799-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45982.59765046297</v>
+        <v>45842.44056712963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2127,6 +2132,11 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>HALLSTAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2167,14 +2177,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 58111-2025</t>
+          <t>A 44192-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45982.59920138889</v>
+        <v>45915.61556712963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2187,7 +2197,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2224,14 +2234,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54207-2025</t>
+          <t>A 37072-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45964</v>
+        <v>45875.40431712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2244,7 +2254,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2281,14 +2291,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 54203-2025</t>
+          <t>A 37076-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45964</v>
+        <v>45875.41342592592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2301,7 +2311,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>10.3</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2338,14 +2348,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 33799-2025</t>
+          <t>A 13510-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45842.44056712963</v>
+        <v>45736.47103009259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2355,11 +2365,6 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>HALLSTAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -2400,14 +2405,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 16762-2022</t>
+          <t>A 14149-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44673.47876157407</v>
+        <v>44651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2419,8 +2424,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2457,14 +2467,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 1621-2026</t>
+          <t>A 53343-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46034.47645833333</v>
+        <v>45614.43885416666</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2477,7 +2487,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2514,14 +2524,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 1622-2026</t>
+          <t>A 8848-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46034.47929398148</v>
+        <v>45713.34292824074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2534,7 +2544,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2571,14 +2581,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 37072-2025</t>
+          <t>A 8436-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45875.40431712963</v>
+        <v>44977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2590,8 +2600,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2628,14 +2643,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 37076-2025</t>
+          <t>A 58109-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45875.41342592592</v>
+        <v>45982.59765046297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2648,7 +2663,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2685,14 +2700,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50230-2024</t>
+          <t>A 58111-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45600</v>
+        <v>45982.59920138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2705,7 +2720,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2742,14 +2757,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13510-2025</t>
+          <t>A 58125-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45736.47103009259</v>
+        <v>45982.61506944444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2762,7 +2777,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2799,14 +2814,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62433-2025</t>
+          <t>A 54207-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46007</v>
+        <v>45964</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2819,7 +2834,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2856,14 +2871,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21972-2023</t>
+          <t>A 54203-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45068.66232638889</v>
+        <v>45964</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2876,7 +2891,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2913,14 +2928,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 35036-2024</t>
+          <t>A 7245-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45527</v>
+        <v>45702</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2933,7 +2948,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2970,14 +2985,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62831-2023</t>
+          <t>A 1621-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45270</v>
+        <v>46034.47645833333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2990,7 +3005,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3027,14 +3042,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 8848-2025</t>
+          <t>A 1622-2026</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45713.34292824074</v>
+        <v>46034.47929398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3047,7 +3062,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3084,14 +3099,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30766-2022</t>
+          <t>A 34984-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44764</v>
+        <v>45527</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3104,7 +3119,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3141,14 +3156,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7245-2025</t>
+          <t>A 62433-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45702</v>
+        <v>46007</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3161,7 +3176,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3198,14 +3213,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30743-2021</t>
+          <t>A 16762-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44365</v>
+        <v>44673.47876157407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3218,7 +3233,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3255,14 +3270,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8436-2023</t>
+          <t>A 22072-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44977</v>
+        <v>45069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3274,13 +3289,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3317,14 +3327,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21264-2022</t>
+          <t>A 30766-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44705</v>
+        <v>44764</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3336,13 +3346,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3379,14 +3384,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12077-2022</t>
+          <t>A 10069-2026</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44636.47484953704</v>
+        <v>46073.64043981482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3398,8 +3403,13 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3436,14 +3446,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 37407-2023</t>
+          <t>A 35036-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45156.60152777778</v>
+        <v>45527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3456,7 +3466,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3490,17 +3500,17 @@
       </c>
       <c r="R51" s="2" t="inlineStr"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14149-2022</t>
+          <t>A 62831-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44651</v>
+        <v>45270</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3512,13 +3522,8 @@
           <t>HALLSTAHAMMAR</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,6 +3556,63 @@
         <v>0</v>
       </c>
       <c r="R52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>A 27365-2025</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>45812.64355324074</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>HALLSTAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45978.37284722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>44887.46917824074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>44739.74783564815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44358</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44502</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>44434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44378</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44252</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>44705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>45068.66232638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45365.43090277778</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44888</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45600</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>44636.47484953704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45156.60152777778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45901.57927083333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>45901.58652777778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44363</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45909.45190972222</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45909.45351851852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45911.45209490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45842.44056712963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>45915.61556712963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>45875.40431712963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>45875.41342592592</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45736.47103009259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         <v>44651</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>45614.43885416666</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45713.34292824074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>45982.59765046297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45982.59920138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>45982.61506944444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>45964</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>45964</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>45702</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>46034.47645833333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>46034.47929398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>45527</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>46007</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44673.47876157407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44764</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>46073.64043981482</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
         <v>45527</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45270</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>45812.64355324074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
